--- a/biology/Zoologie/Carpocapse_des_prunes/Carpocapse_des_prunes.xlsx
+++ b/biology/Zoologie/Carpocapse_des_prunes/Carpocapse_des_prunes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grapholita funebrana
 Le Carpocapse des prunes ou ver des prunes (Grapholita funebrana) est une espèce d'insectes lépidoptères de la famille des Tortricidae, originaire d'Europe.
@@ -513,10 +525,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'imago mesure environ 8 mm de longueur, ailes refermées. Ses ailes antérieures sont de couleur gris-brun mat avec des dessins sombres tandis que les ailes postérieures sont uniformément grises. Les œufs, lenticulaires et translucides, sont pondus sur les fruits[1].
-Les chenilles commencent à être claires avant de devenir rose-rouge. Leur tête est brun sombre. Au dernier stade larvaire, elles mesurent entre 10 et 12 mm[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago mesure environ 8 mm de longueur, ailes refermées. Ses ailes antérieures sont de couleur gris-brun mat avec des dessins sombres tandis que les ailes postérieures sont uniformément grises. Les œufs, lenticulaires et translucides, sont pondus sur les fruits.
+Les chenilles commencent à être claires avant de devenir rose-rouge. Leur tête est brun sombre. Au dernier stade larvaire, elles mesurent entre 10 et 12 mm.
 			Vue latérale
 			Vue dorsale
 </t>
@@ -547,9 +561,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de Grapholita funebrana s'étend sur une grande partie de la zone paléarctique[2] : Europe, Asie mineure, Afrique du Nord, Russie (y compris l'Extrême-orient russe), Ukraine, Moldavie, Transcaucasie, Kazakhstan, Asie centrale, Chine, Japon, Corée.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de Grapholita funebrana s'étend sur une grande partie de la zone paléarctique : Europe, Asie mineure, Afrique du Nord, Russie (y compris l'Extrême-orient russe), Ukraine, Moldavie, Transcaucasie, Kazakhstan, Asie centrale, Chine, Japon, Corée.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un papillon qui développe deux générations sur une même année. Ces deux générations peuvent se chevaucher dans le temps[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un papillon qui développe deux générations sur une même année. Ces deux générations peuvent se chevaucher dans le temps.
 </t>
         </is>
       </c>
@@ -609,10 +627,12 @@
           <t>Interaction écologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Carpocapse des prunes s'attaque aux fruits de plusieurs arbres ou arbustes du genre Prunus, dont le prunier et le prunellier et plus rarement au pêcher et à l'abricotier[1].
-Les œufs sont déposés seuls sur des fruits. Une fois sorti, l'asticot pénètre à l'intérieur du fruit et cause sa chute prématurée[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Carpocapse des prunes s'attaque aux fruits de plusieurs arbres ou arbustes du genre Prunus, dont le prunier et le prunellier et plus rarement au pêcher et à l'abricotier.
+Les œufs sont déposés seuls sur des fruits. Une fois sorti, l'asticot pénètre à l'intérieur du fruit et cause sa chute prématurée.
 </t>
         </is>
       </c>
@@ -641,11 +661,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite pour la première fois en 1835 par l'entomologiste allemand Georg Friedrich Treitschke (1776-1842).
-Synonymes
-Selon AgroAtlas[2] et Aphis/USDA[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 1835 par l'entomologiste allemand Georg Friedrich Treitschke (1776-1842).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Carpocapse_des_prunes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carpocapse_des_prunes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon AgroAtlas et Aphis/USDA :
 Cydia funebrana (Treitschke, 1835) ;
 Enarmonia funebrana ;
 Grapholita funebrana  Treitschke (Brown et al. 2005) (Zhang 1994) ;
@@ -659,31 +716,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Carpocapse_des_prunes</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Carpocapse_des_prunes</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Moyens de lutte</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs moyen de lutte contre les carpocapse sont présentés dans l'article général sur les carpocapse
 </t>
